--- a/artfynd/A 21283-2025 artfynd.xlsx
+++ b/artfynd/A 21283-2025 artfynd.xlsx
@@ -8068,7 +8068,7 @@
         <v>127823971</v>
       </c>
       <c r="B65" t="n">
-        <v>58373</v>
+        <v>58377</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
